--- a/measurments.xlsx
+++ b/measurments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanyi_GoogleDrive\repos\TrajectoryDistanceKpiCuda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E3ECB6-AEB6-41C5-B337-09C76CA8CED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D2DB20-9B5D-4C98-89D1-4300D533165F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="float" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>nPoints</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>336 GBps</t>
+  </si>
+  <si>
+    <t>Core i5 9500</t>
+  </si>
+  <si>
+    <t>Max Memory Bandwidth</t>
+  </si>
+  <si>
+    <t>41.6 GBps</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I247" sqref="A247:I247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15748,14 +15757,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF81B63-F0C9-499B-AFDF-480F235B1C17}">
   <dimension ref="A1:O336"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="11.7109375" style="1"/>
-    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.42578125" style="1" customWidth="1"/>
     <col min="9" max="11" width="12.5703125" style="1" customWidth="1"/>
@@ -15767,6 +15776,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="21"/>
       <c r="H1" s="20" t="s">
         <v>21</v>
       </c>
@@ -15781,6 +15794,12 @@
       <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="11">
         <v>2666</v>
       </c>
@@ -15801,6 +15820,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
       <c r="K3" s="15"/>
@@ -30007,7 +30028,7 @@
         <v>9.8375000000000006E-5</v>
       </c>
       <c r="I328" s="1">
-        <f t="shared" ref="I328:I372" si="31">D328-H328</f>
+        <f t="shared" ref="I328:I336" si="31">D328-H328</f>
         <v>5.7125000000000006E-5</v>
       </c>
       <c r="J328" s="5">
@@ -30059,7 +30080,7 @@
         <v>0.62659235668789814</v>
       </c>
       <c r="L329" s="1">
-        <f t="shared" ref="L329:L373" si="35">I329/MAX(B329,1)/A329*1000000</f>
+        <f t="shared" ref="L329:L336" si="35">I329/MAX(B329,1)/A329*1000000</f>
         <v>2.8625488281249993E-2</v>
       </c>
       <c r="N329" s="3" t="str">
@@ -30380,9 +30401,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
